--- a/13002 - Assignment 15 - 2025 B - ANS.xlsx
+++ b/13002 - Assignment 15 - 2025 B - ANS.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10624"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mypac-my.sharepoint.com/personal/shay_tsaban_pac_org_il/Documents/OpenU 13002/2025B/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_1DBC5478DA15BB5185E14E5CF1AAB385A049BCC6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7051F619-E525-E045-853B-AF5ABCACEF84}"/>
   <bookViews>
-    <workbookView xWindow="25875" yWindow="3555" windowWidth="25065" windowHeight="16440"/>
+    <workbookView xWindow="37460" yWindow="6840" windowWidth="30080" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
   <si>
     <t>שאלה</t>
   </si>
@@ -213,17 +219,29 @@
   </si>
   <si>
     <t>כל יתר הפעולות המתוארות, יקטינו את תז"מ מפעילות מימון מכיוון שהן כרוכות בהוצאות מזומן מהחברה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תיקון ב- 28.6.2025: גם טענה 4 נכונה, ולכן התשובה ה. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כפי שלמדנו, ירידת הערך מקטינה את הרווח (מה שלכאורה משפיע שלילית על התזרים השוטף) אך </t>
+  </si>
+  <si>
+    <t>מאידך מגדיל את ההתאמה החיובית לתזרים המזומנים מפעילות שוטפת, באופן שמבטל את ההשפעות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הסותרות (ראו מחברת הקורס). </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -231,12 +249,16 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="David"/>
+      <family val="2"/>
+      <charset val="177"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="David"/>
+      <family val="2"/>
+      <charset val="177"/>
     </font>
     <font>
       <b/>
@@ -275,6 +297,19 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="David"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFEE0000"/>
+      <name val="David"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFEE0000"/>
       <name val="David"/>
       <family val="2"/>
     </font>
@@ -362,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -381,23 +416,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -408,13 +434,13 @@
     <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,35 +767,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.77734375" style="1"/>
-    <col min="5" max="5" width="4.77734375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="10.77734375" style="1"/>
-    <col min="9" max="9" width="6.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.77734375" style="1"/>
+    <col min="1" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="4.83203125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="6.1640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -777,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -785,80 +811,80 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
@@ -870,7 +896,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -878,7 +904,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -886,7 +912,7 @@
         <v>-19000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -894,7 +920,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,7 +928,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>25</v>
       </c>
@@ -910,28 +936,28 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="24">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="19">
         <f>SUM(D16:D20)</f>
         <v>83000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>9</v>
       </c>
@@ -943,140 +969,107 @@
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="4">
         <v>540000</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="19">
+      <c r="H26" s="16">
         <v>-4000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="4">
         <v>88000</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="20">
+      <c r="H27" s="16">
         <f>SUM(H26)</f>
         <v>-4000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="4">
         <v>94000</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="5">
         <v>-14000</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="17"/>
       <c r="H29" s="5">
         <v>-5000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="17">
         <v>12000</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="19">
+      <c r="H30" s="16">
         <v>-15000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="20">
         <f>SUM(D26:D30)</f>
         <v>720000</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="20">
+      <c r="H31" s="16">
         <f>SUM(H29:H30)</f>
         <v>-20000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D32" s="4"/>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+    </row>
+    <row r="35" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>10</v>
       </c>
@@ -1088,712 +1081,735 @@
       <c r="G36" s="7"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="4">
         <v>100000</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="5">
         <v>-15000</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="5">
         <v>-17000</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="4">
         <v>13000</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D41" s="5">
         <v>12500</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="24">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="19">
         <f>SUM(D37:D41)</f>
         <v>93500</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D43" s="14"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="14"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="14"/>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D53" s="4">
         <v>180000</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F53" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H53" s="5">
         <v>-88000</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D54" s="4">
         <v>95000</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F54" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H50" s="21">
+      <c r="H54" s="17">
         <v>77000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D55" s="4">
         <v>38000</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F55" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="26">
-        <f>SUM(H49:H50)</f>
-        <v>-11000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="4">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="19">
-        <v>-32000</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H53" s="4">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="21">
-        <f>SUM(D49:D53)</f>
-        <v>298000</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H54" s="19">
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="25"/>
-      <c r="F55" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="G55" s="14"/>
       <c r="H55" s="21">
         <f>SUM(H53:H54)</f>
+        <v>-11000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="4">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="16">
+        <v>-32000</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="17">
+        <f>SUM(D53:D57)</f>
+        <v>298000</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="16">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="20"/>
+      <c r="F59" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="17">
+        <f>SUM(H57:H58)</f>
         <v>80000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="14"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D63" s="4">
         <v>120000</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D64" s="5">
         <v>-21000</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D65" s="4">
         <v>14000</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D66" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="27">
+      <c r="D67" s="17">
         <v>14000</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="27">
-        <f>SUM(D59:D63)</f>
+      <c r="D68" s="17">
+        <f>SUM(D63:D67)</f>
         <v>134000</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D65" s="14"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D66" s="14"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D67" s="14"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="14"/>
-    </row>
-    <row r="69" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="14"/>
-    </row>
-    <row r="70" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="8"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="8"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="14"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="14"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="14"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D74" s="14"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="14"/>
-    </row>
-    <row r="76" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="14"/>
-    </row>
-    <row r="77" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="28" t="s">
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="8"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D78" s="14"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D79" s="14"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D80" s="14"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D81" s="14"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D82" s="14"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="14"/>
-    </row>
-    <row r="84" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D84" s="14"/>
-    </row>
-    <row r="85" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="28" t="s">
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="8"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D86" s="14"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D87" s="14"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D88" s="14"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D89" s="14"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
-      <c r="D90" s="14"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="15" t="s">
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="13"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D91" s="14"/>
-    </row>
-    <row r="92" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D92" s="14"/>
-    </row>
-    <row r="93" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="28" t="s">
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="8"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="8"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="14">
+      <c r="D98" s="4">
         <v>500000</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="14">
+      <c r="D99" s="4">
         <v>6000</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D100" s="5">
         <v>-12000</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D101" s="5">
         <v>7000</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D102" s="5">
         <v>-9000</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D99" s="19">
+      <c r="D103" s="16">
         <v>-3000</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="15" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="29">
-        <f>SUM(D94:D99)</f>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="20">
+        <f>SUM(D98:D103)</f>
         <v>489000</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="15" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="13"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="13"/>
-    </row>
-    <row r="104" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="28" t="s">
+    <row r="107" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="13"/>
+    </row>
+    <row r="108" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="8"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="13"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="8"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="13"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="15" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="13"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="13"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="13"/>
-    </row>
-    <row r="135" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="136" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="6"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="8"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F138" s="3"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="13"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="13"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="13"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="13"/>
+    </row>
+    <row r="139" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="6"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="8"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F148" s="9"/>
-    </row>
-    <row r="149" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="6"/>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="8"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F152" s="3"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F153" s="3"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F154" s="3"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F155" s="3"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F152" s="9"/>
+    </row>
+    <row r="153" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="6"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="8"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F162" s="9"/>
-    </row>
-    <row r="163" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="164" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="6"/>
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="8"/>
-    </row>
-    <row r="170" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="171" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="6"/>
-      <c r="B171" s="7"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="8"/>
-    </row>
-    <row r="177" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="178" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="6"/>
-      <c r="B178" s="7"/>
-      <c r="C178" s="7"/>
-      <c r="D178" s="7"/>
-      <c r="E178" s="7"/>
-      <c r="F178" s="7"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="8"/>
-    </row>
-    <row r="184" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="185" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="6"/>
-      <c r="B185" s="7"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="8"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D191" s="3"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D192" s="3"/>
-    </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D193" s="3"/>
-    </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D195" s="9"/>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F166" s="9"/>
+    </row>
+    <row r="167" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="6"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="8"/>
+    </row>
+    <row r="174" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="6"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="8"/>
+    </row>
+    <row r="181" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="6"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="8"/>
+    </row>
+    <row r="188" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="6"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="8"/>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D196" s="3"/>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D197" s="3"/>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D199" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
